--- a/data/records.xlsx
+++ b/data/records.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,78 +436,1261 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date Started</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Date Finished</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Work Order</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Project Task</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Issue</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>End Time</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total Time</t>
+          <t>Total Time (minutes)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5166666666666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yrd</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PAINT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1.233333333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.033333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.683333333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0055555555555555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0397222222222222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0313888888888888</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2666666666666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>44</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>44</v>
+      </c>
+      <c r="D25" t="n">
+        <v>44</v>
+      </c>
+      <c r="E25" t="n">
+        <v>44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3666666666666667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>New1</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2166666666666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>New2</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>New3</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="G36" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DirectPause</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0.09999999999999989</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0666666666666664</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.08333333333333209</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sad</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20:15:11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1.083333333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0666666666666666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
